--- a/ePICreator/tegretol.xlsx
+++ b/ePICreator/tegretol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B058A52A-A4D2-3245-9E9D-9411D766E51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E233F143-86BC-C141-9518-7C3241933146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="10" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="147">
   <si>
     <t>id</t>
   </si>
@@ -368,9 +368,6 @@
   </si>
   <si>
     <t xml:space="preserve">EU/1/98/071/004 </t>
-  </si>
-  <si>
-    <t>em</t>
   </si>
   <si>
     <t>Oral use</t>
@@ -776,6 +773,9 @@
     &lt;p style="margin:0pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
     &lt;p style="margin:0pt; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Los medicamentos no se deben tirar por los desagües ni a la basura. Deposite los envases y los medicamentos que no necesita en el Punto SIGRE&lt;/span&gt;  &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;de la farmacia. En caso de duda pregunte a su farmacéutico cómo deshacerse de los envases y de los medicamentos que no necesita. De esta forma, ayudará a proteger el medio ambiente.&lt;/span&gt;&lt;/p&gt;
   &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>en</t>
   </si>
 </sst>
 </file>
@@ -972,7 +972,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -989,7 +989,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1346,10 +1346,10 @@
     <row r="2" spans="1:13" ht="18">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>25</v>
@@ -1367,13 +1367,13 @@
         <v>28</v>
       </c>
       <c r="I2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="J2" s="24" t="s">
-        <v>124</v>
-      </c>
       <c r="K2" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L2">
         <v>8013</v>
@@ -1464,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1530,10 +1530,7 @@
     <row r="2" spans="1:16" ht="409.6">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>48</v>
@@ -1542,32 +1539,32 @@
         <v>50</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="P2" s="7"/>
     </row>
@@ -1627,10 +1624,10 @@
         <v>43</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
         <v>113</v>
-      </c>
-      <c r="D2" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1694,10 +1691,10 @@
     <row r="2" spans="1:11">
       <c r="A2" s="12"/>
       <c r="B2" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>31</v>
@@ -1715,10 +1712,10 @@
         <v>100</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>115</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1818,10 +1815,10 @@
     <row r="2" spans="1:14" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
@@ -1830,16 +1827,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H2" t="s">
         <v>37</v>
       </c>
       <c r="I2" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="18" t="s">
         <v>129</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>130</v>
       </c>
       <c r="K2" t="s">
         <v>38</v>
@@ -1929,10 +1926,10 @@
     <row r="2" spans="1:13" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1959,10 +1956,10 @@
     <row r="3" spans="1:13" ht="21">
       <c r="A3" s="1"/>
       <c r="B3" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -1979,10 +1976,10 @@
     <row r="4" spans="1:13" ht="21">
       <c r="A4" s="1"/>
       <c r="B4" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -2059,8 +2056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2143,34 +2140,34 @@
     <row r="2" spans="1:19" ht="19">
       <c r="A2" s="12"/>
       <c r="B2" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>105</v>
       </c>
       <c r="D2" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="I2" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>87</v>
@@ -2322,7 +2319,7 @@
     <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2">
         <v>39955</v>
@@ -2331,13 +2328,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F2" s="2">
         <v>100000073665</v>
       </c>
       <c r="G2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H2" s="2">
         <v>200000002152</v>
@@ -2409,7 +2406,7 @@
     <row r="2" spans="1:11">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>106</v>
@@ -2418,19 +2415,19 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F2">
         <v>200000002152</v>
       </c>
       <c r="G2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H2" s="2">
         <v>200000002152</v>
       </c>
       <c r="I2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J2" s="2">
         <v>100000073619</v>
@@ -2543,10 +2540,10 @@
     <row r="2" spans="1:23">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
@@ -2561,13 +2558,13 @@
         <v>100000155527</v>
       </c>
       <c r="H2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I2" s="9">
         <v>7777</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K2" s="14">
         <v>100000073498</v>

--- a/ePICreator/tegretol.xlsx
+++ b/ePICreator/tegretol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E233F143-86BC-C141-9518-7C3241933146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3581B3-4AA7-0749-9D6E-00885F7FE0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="148">
   <si>
     <t>id</t>
   </si>
@@ -776,6 +776,9 @@
   </si>
   <si>
     <t>en</t>
+  </si>
+  <si>
+    <t>country</t>
   </si>
 </sst>
 </file>
@@ -2057,7 +2060,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2107,7 +2110,7 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="K1" t="s">
         <v>86</v>

--- a/ePICreator/tegretol.xlsx
+++ b/ePICreator/tegretol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3581B3-4AA7-0749-9D6E-00885F7FE0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408E4FBE-C1B6-2246-BD37-F2595417F4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="Composition" sheetId="3" r:id="rId11"/>
     <sheet name="Bundle" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -364,9 +364,6 @@
     <t>2018-06-21</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/pmswi|https://www.who-umc.org/phpid</t>
-  </si>
-  <si>
     <t xml:space="preserve">EU/1/98/071/004 </t>
   </si>
   <si>
@@ -395,9 +392,6 @@
   </si>
   <si>
     <t>ES</t>
-  </si>
-  <si>
-    <t>39.955|0xF79CABF272B6A7EEF104DDDA44E82745</t>
   </si>
   <si>
     <t>Tegretol</t>
@@ -779,6 +773,12 @@
   </si>
   <si>
     <t>country</t>
+  </si>
+  <si>
+    <t>39.955|FB9808F4FED210183F412F9998622287|5C62673C79E096D37914D32A45AA8F4D</t>
+  </si>
+  <si>
+    <t>https://spor.ema.europa.eu/pmswi|https://www.who-umc.org/phpid/4|https://www.who-umc.org/phpid/3</t>
   </si>
 </sst>
 </file>
@@ -1349,10 +1349,10 @@
     <row r="2" spans="1:13" ht="18">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>25</v>
@@ -1370,13 +1370,13 @@
         <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L2">
         <v>8013</v>
@@ -1533,7 +1533,7 @@
     <row r="2" spans="1:16" ht="409.6">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>48</v>
@@ -1542,32 +1542,32 @@
         <v>50</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="N2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="P2" s="7"/>
     </row>
@@ -1627,10 +1627,10 @@
         <v>43</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
         <v>112</v>
-      </c>
-      <c r="D2" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1694,10 +1694,10 @@
     <row r="2" spans="1:11">
       <c r="A2" s="12"/>
       <c r="B2" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>31</v>
@@ -1715,10 +1715,10 @@
         <v>100</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1818,10 +1818,10 @@
     <row r="2" spans="1:14" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
@@ -1830,16 +1830,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H2" t="s">
         <v>37</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K2" t="s">
         <v>38</v>
@@ -1929,10 +1929,10 @@
     <row r="2" spans="1:13" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1959,10 +1959,10 @@
     <row r="3" spans="1:13" ht="21">
       <c r="A3" s="1"/>
       <c r="B3" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -1979,10 +1979,10 @@
     <row r="4" spans="1:13" ht="21">
       <c r="A4" s="1"/>
       <c r="B4" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -2060,7 +2060,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2110,7 +2110,7 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K1" t="s">
         <v>86</v>
@@ -2143,34 +2143,34 @@
     <row r="2" spans="1:19" ht="19">
       <c r="A2" s="12"/>
       <c r="B2" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="D2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>120</v>
-      </c>
       <c r="I2" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>87</v>
@@ -2322,7 +2322,7 @@
     <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2">
         <v>39955</v>
@@ -2331,13 +2331,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F2" s="2">
         <v>100000073665</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H2" s="2">
         <v>200000002152</v>
@@ -2409,28 +2409,28 @@
     <row r="2" spans="1:11">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F2">
         <v>200000002152</v>
       </c>
       <c r="G2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H2" s="2">
         <v>200000002152</v>
       </c>
       <c r="I2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J2" s="2">
         <v>100000073619</v>
@@ -2543,10 +2543,10 @@
     <row r="2" spans="1:23">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
@@ -2561,13 +2561,13 @@
         <v>100000155527</v>
       </c>
       <c r="H2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I2" s="9">
         <v>7777</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K2" s="14">
         <v>100000073498</v>

--- a/ePICreator/tegretol.xlsx
+++ b/ePICreator/tegretol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408E4FBE-C1B6-2246-BD37-F2595417F4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB0E80B-F0A9-224E-B5BC-19B00ED84B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="8" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -26,6 +26,9 @@
     <sheet name="Composition" sheetId="3" r:id="rId11"/>
     <sheet name="Bundle" sheetId="11" r:id="rId12"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId13"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -358,9 +361,6 @@
     <t>2012-02-07T13:28:17Z</t>
   </si>
   <si>
-    <t>Cardboard</t>
-  </si>
-  <si>
     <t>2018-06-21</t>
   </si>
   <si>
@@ -368,9 +368,6 @@
   </si>
   <si>
     <t>Oral use</t>
-  </si>
-  <si>
-    <t>Box</t>
   </si>
   <si>
     <t>Tegretol 200 mg tablets</t>
@@ -778,14 +775,20 @@
     <t>39.955|FB9808F4FED210183F412F9998622287|5C62673C79E096D37914D32A45AA8F4D</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/pmswi|https://www.who-umc.org/phpid/4|https://www.who-umc.org/phpid/3</t>
+    <t>https://spor.ema.europa.eu/pmswi|https://www.who-umc.org/phpid_4|https://www.who-umc.org/phpid_3</t>
+  </si>
+  <si>
+    <t>Blister</t>
+  </si>
+  <si>
+    <t>PolyVinyl Chloride</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -918,13 +921,32 @@
       <color rgb="FFC7254E"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -940,7 +962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -973,6 +995,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -989,6 +1013,871 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Organization"/>
+      <sheetName val="RegulatedAuthorization"/>
+      <sheetName val="Substance"/>
+      <sheetName val="Ingredient"/>
+      <sheetName val="MedicinalProductDefinition"/>
+      <sheetName val="ManufacturedItemDefinition"/>
+      <sheetName val="AdministrableProductDefinition"/>
+      <sheetName val="PackagedProductDefinition"/>
+      <sheetName val="ClinicalUseDefinition"/>
+      <sheetName val="Composition"/>
+      <sheetName val="Bundle"/>
+      <sheetName val="EXTRA"/>
+      <sheetName val="DATA_VAL"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="2">
+          <cell r="G2">
+            <v>100000073530</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>Multidose container</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="G3" t="str">
+            <v>100000073520</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>Injection syringe</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4" t="str">
+            <v>100000073529</v>
+          </cell>
+          <cell r="H4" t="str">
+            <v>Mouthpiece</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5" t="str">
+            <v>100000163233</v>
+          </cell>
+          <cell r="H5" t="str">
+            <v>disk</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6" t="str">
+            <v>100000073502</v>
+          </cell>
+          <cell r="H6" t="str">
+            <v>Cap</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="G7" t="str">
+            <v>100000073513</v>
+          </cell>
+          <cell r="H7" t="str">
+            <v>Fixed cryogenic vessel</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="G8" t="str">
+            <v>100000073500</v>
+          </cell>
+          <cell r="H8" t="str">
+            <v>Brush applicator</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="G9" t="str">
+            <v>100000073495</v>
+          </cell>
+          <cell r="H9" t="str">
+            <v>Barrel</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="G10" t="str">
+            <v>100000073496</v>
+          </cell>
+          <cell r="H10" t="str">
+            <v>Blister</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="G11" t="str">
+            <v>100000163234</v>
+          </cell>
+          <cell r="H11" t="str">
+            <v>plunger</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="G12" t="str">
+            <v>100000073492</v>
+          </cell>
+          <cell r="H12" t="str">
+            <v>Automatic injection device</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="G13" t="str">
+            <v>100000073497</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>Bottle</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="G14" t="str">
+            <v>100000073507</v>
+          </cell>
+          <cell r="H14" t="str">
+            <v>Dart</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="G15" t="str">
+            <v>100000073509</v>
+          </cell>
+          <cell r="H15" t="str">
+            <v>Dredging container</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="G16" t="str">
+            <v>100000073511</v>
+          </cell>
+          <cell r="H16" t="str">
+            <v>Dropper applicator</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="G17" t="str">
+            <v>100000073539</v>
+          </cell>
+          <cell r="H17" t="str">
+            <v>Pipette applicator</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="G18" t="str">
+            <v>100000073490</v>
+          </cell>
+          <cell r="H18" t="str">
+            <v>Ampoule</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="G19" t="str">
+            <v>100000073505</v>
+          </cell>
+          <cell r="H19" t="str">
+            <v>Cup</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="G20" t="str">
+            <v>100000073506</v>
+          </cell>
+          <cell r="H20" t="str">
+            <v>Dabbing applicator</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="G21" t="str">
+            <v>100000073508</v>
+          </cell>
+          <cell r="H21" t="str">
+            <v>Dredging applicator</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="G22" t="str">
+            <v>100000073510</v>
+          </cell>
+          <cell r="H22" t="str">
+            <v>Drench gun</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="G23" t="str">
+            <v>100000073512</v>
+          </cell>
+          <cell r="H23" t="str">
+            <v>Dropper container</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="G24" t="str">
+            <v>100000073516</v>
+          </cell>
+          <cell r="H24" t="str">
+            <v>Implanter</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="G25" t="str">
+            <v>100000073517</v>
+          </cell>
+          <cell r="H25" t="str">
+            <v>Inhaler</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="G26" t="str">
+            <v>100000073518</v>
+          </cell>
+          <cell r="H26" t="str">
+            <v>In-ovo injection device</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="G27" t="str">
+            <v>100000073527</v>
+          </cell>
+          <cell r="H27" t="str">
+            <v>Metering valve</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="G28" t="str">
+            <v>100000073535</v>
+          </cell>
+          <cell r="H28" t="str">
+            <v>Needle applicator</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="G29" t="str">
+            <v>100000073519</v>
+          </cell>
+          <cell r="H29" t="str">
+            <v>Injection needle</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="G30" t="str">
+            <v>100000073526</v>
+          </cell>
+          <cell r="H30" t="str">
+            <v>Metering pump</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="G31" t="str">
+            <v>100000073521</v>
+          </cell>
+          <cell r="H31" t="str">
+            <v>Internal graduated calibration chamber</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="G32" t="str">
+            <v>100000073522</v>
+          </cell>
+          <cell r="H32" t="str">
+            <v>Intramammary syringe</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="G33" t="str">
+            <v>100000073523</v>
+          </cell>
+          <cell r="H33" t="str">
+            <v>Jar</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="G34" t="str">
+            <v>100000073524</v>
+          </cell>
+          <cell r="H34" t="str">
+            <v>Measuring device</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="G35" t="str">
+            <v>100000073525</v>
+          </cell>
+          <cell r="H35" t="str">
+            <v>Measuring spoon</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="G36" t="str">
+            <v>100000073528</v>
+          </cell>
+          <cell r="H36" t="str">
+            <v>Mobile cryogenic vessel</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="G37" t="str">
+            <v>100000073558</v>
+          </cell>
+          <cell r="H37" t="str">
+            <v>Straw</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="G38" t="str">
+            <v>100000073531</v>
+          </cell>
+          <cell r="H38" t="str">
+            <v>Multidose container with airless pump</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="G39" t="str">
+            <v>100000073532</v>
+          </cell>
+          <cell r="H39" t="str">
+            <v>Multipuncturer</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="G40" t="str">
+            <v>100000073533</v>
+          </cell>
+          <cell r="H40" t="str">
+            <v>Nasal applicator</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="G41" t="str">
+            <v>100000073534</v>
+          </cell>
+          <cell r="H41" t="str">
+            <v>Nebuliser</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="G42" t="str">
+            <v>100000073536</v>
+          </cell>
+          <cell r="H42" t="str">
+            <v>Nozzle</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="G43" t="str">
+            <v>100000073538</v>
+          </cell>
+          <cell r="H43" t="str">
+            <v>Pipette</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="G44" t="str">
+            <v>100000073541</v>
+          </cell>
+          <cell r="H44" t="str">
+            <v>Pour-on container</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="G45" t="str">
+            <v>100000143555</v>
+          </cell>
+          <cell r="H45" t="str">
+            <v>Pack</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="G46" t="str">
+            <v>100000164143</v>
+          </cell>
+          <cell r="H46" t="str">
+            <v>infusion port</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="G47" t="str">
+            <v>100000073515</v>
+          </cell>
+          <cell r="H47" t="str">
+            <v>High pressure transdermal delivery device</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="G48" t="str">
+            <v>100000116195</v>
+          </cell>
+          <cell r="H48" t="str">
+            <v>Calendar package</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="G49" t="str">
+            <v>200000012539</v>
+          </cell>
+          <cell r="H49" t="str">
+            <v>Child-resistant sachet</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="G50" t="str">
+            <v>200000011726</v>
+          </cell>
+          <cell r="H50" t="str">
+            <v>Capsule for opening</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="G51" t="str">
+            <v>100000169899</v>
+          </cell>
+          <cell r="H51" t="str">
+            <v>Jerrycan</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="G52" t="str">
+            <v>200000013191</v>
+          </cell>
+          <cell r="H52" t="str">
+            <v>Tamper-evident closure</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="G53" t="str">
+            <v>100000137703</v>
+          </cell>
+          <cell r="H53" t="str">
+            <v>Oral applicator</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="G54" t="str">
+            <v>200000024874</v>
+          </cell>
+          <cell r="H54" t="str">
+            <v>Tablet tube</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="G55" t="str">
+            <v>100000073540</v>
+          </cell>
+          <cell r="H55" t="str">
+            <v>Pouch</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="G56" t="str">
+            <v>100000073491</v>
+          </cell>
+          <cell r="H56" t="str">
+            <v>Applicator</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="G57" t="str">
+            <v>100000073542</v>
+          </cell>
+          <cell r="H57" t="str">
+            <v>Pre-filled gastroenteral tube</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="G58" t="str">
+            <v>100000073543</v>
+          </cell>
+          <cell r="H58" t="str">
+            <v>Pre-filled pen</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="G59" t="str">
+            <v>100000073555</v>
+          </cell>
+          <cell r="H59" t="str">
+            <v>Spray valve</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="G60" t="str">
+            <v>100000073545</v>
+          </cell>
+          <cell r="H60" t="str">
+            <v>Pressurised container</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="G61" t="str">
+            <v>100000073554</v>
+          </cell>
+          <cell r="H61" t="str">
+            <v>Spray pump</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="G62" t="str">
+            <v>100000073546</v>
+          </cell>
+          <cell r="H62" t="str">
+            <v>Prick test applicator</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="G63" t="str">
+            <v>100000073547</v>
+          </cell>
+          <cell r="H63" t="str">
+            <v>Sachet</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="G64" t="str">
+            <v>100000073548</v>
+          </cell>
+          <cell r="H64" t="str">
+            <v>Scarifier</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="G65" t="str">
+            <v>100000073550</v>
+          </cell>
+          <cell r="H65" t="str">
+            <v>Single-dose container</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="G66" t="str">
+            <v>100000073551</v>
+          </cell>
+          <cell r="H66" t="str">
+            <v>Spatula</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="G67" t="str">
+            <v>100000073552</v>
+          </cell>
+          <cell r="H67" t="str">
+            <v>Spot-on applicator</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="G68" t="str">
+            <v>100000073553</v>
+          </cell>
+          <cell r="H68" t="str">
+            <v>Spray container</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="G69" t="str">
+            <v>100000073563</v>
+          </cell>
+          <cell r="H69" t="str">
+            <v>Vial</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="G70" t="str">
+            <v>100000073494</v>
+          </cell>
+          <cell r="H70" t="str">
+            <v>Balling gun</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="G71" t="str">
+            <v>100000073498</v>
+          </cell>
+          <cell r="H71" t="str">
+            <v>Box</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="G72" t="str">
+            <v>100000073499</v>
+          </cell>
+          <cell r="H72" t="str">
+            <v>Brush</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="G73" t="str">
+            <v>100000073501</v>
+          </cell>
+          <cell r="H73" t="str">
+            <v>Cannula</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="G74" t="str">
+            <v>100000073556</v>
+          </cell>
+          <cell r="H74" t="str">
+            <v>Stab vaccinator</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="G75" t="str">
+            <v>100000073559</v>
+          </cell>
+          <cell r="H75" t="str">
+            <v>Strip</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="G76" t="str">
+            <v>100000073560</v>
+          </cell>
+          <cell r="H76" t="str">
+            <v>Tablet container</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="G77" t="str">
+            <v>100000073562</v>
+          </cell>
+          <cell r="H77" t="str">
+            <v>Vaginal sponge applicator</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="G78" t="str">
+            <v>100000075664</v>
+          </cell>
+          <cell r="H78" t="str">
+            <v>Administration system</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="G79" t="str">
+            <v>100000116196</v>
+          </cell>
+          <cell r="H79" t="str">
+            <v>Needle-free injector</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="G80" t="str">
+            <v>100000116197</v>
+          </cell>
+          <cell r="H80" t="str">
+            <v>Roll-on container</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="G81" t="str">
+            <v>100000137702</v>
+          </cell>
+          <cell r="H81" t="str">
+            <v>Container</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="G82" t="str">
+            <v>100000143554</v>
+          </cell>
+          <cell r="H82" t="str">
+            <v>Multidose container with metering pump</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="G83" t="str">
+            <v>100000166980</v>
+          </cell>
+          <cell r="H83" t="str">
+            <v>Valve</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="G84" t="str">
+            <v>200000010647</v>
+          </cell>
+          <cell r="H84" t="str">
+            <v>Lid</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="G85" t="str">
+            <v>100000173982</v>
+          </cell>
+          <cell r="H85" t="str">
+            <v>Oral applicator</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="G86" t="str">
+            <v>100000173983</v>
+          </cell>
+          <cell r="H86" t="str">
+            <v>Dose dispenser</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="G87" t="str">
+            <v>100000174066</v>
+          </cell>
+          <cell r="H87" t="str">
+            <v>Unit-dose blister</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="G88" t="str">
+            <v>100000174067</v>
+          </cell>
+          <cell r="H88" t="str">
+            <v>Pre-filled injector</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="G89" t="str">
+            <v>100000174068</v>
+          </cell>
+          <cell r="H89" t="str">
+            <v>Pre-filled oral syringe</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="G90" t="str">
+            <v>100000174069</v>
+          </cell>
+          <cell r="H90" t="str">
+            <v>Pre-filled oral applicator</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="G91" t="str">
+            <v>100000174070</v>
+          </cell>
+          <cell r="H91" t="str">
+            <v>Dose-dispenser cartridge</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="G92" t="str">
+            <v>200000005068</v>
+          </cell>
+          <cell r="H92" t="str">
+            <v>Pen</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="G93" t="str">
+            <v>100000073514</v>
+          </cell>
+          <cell r="H93" t="str">
+            <v>Gas cylinder</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="G94" t="str">
+            <v>100000073561</v>
+          </cell>
+          <cell r="H94" t="str">
+            <v>Tube</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="G95" t="str">
+            <v>200000005585</v>
+          </cell>
+          <cell r="H95" t="str">
+            <v>Wrapper</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="G96" t="str">
+            <v>100000073504</v>
+          </cell>
+          <cell r="H96" t="str">
+            <v>Child-resistant closure</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="G97" t="str">
+            <v>100000073549</v>
+          </cell>
+          <cell r="H97" t="str">
+            <v>Screw cap</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="G98" t="str">
+            <v>100000073557</v>
+          </cell>
+          <cell r="H98" t="str">
+            <v>Stopper</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="G99" t="str">
+            <v>100000073493</v>
+          </cell>
+          <cell r="H99" t="str">
+            <v>Bag</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="G100" t="str">
+            <v>100000073503</v>
+          </cell>
+          <cell r="H100" t="str">
+            <v>Cartridge</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="G101" t="str">
+            <v>100000073537</v>
+          </cell>
+          <cell r="H101" t="str">
+            <v>Oral syringe</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="G102" t="str">
+            <v>100000125779</v>
+          </cell>
+          <cell r="H102" t="str">
+            <v>Multidose container with pump</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="G103" t="str">
+            <v>100000073544</v>
+          </cell>
+          <cell r="H103" t="str">
+            <v>Pre-filled syringe</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="G104" t="str">
+            <v>200000026021</v>
+          </cell>
+          <cell r="H104" t="str">
+            <v>Gas cylinder bundle</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1349,10 +2238,10 @@
     <row r="2" spans="1:13" ht="18">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>25</v>
@@ -1370,13 +2259,13 @@
         <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L2">
         <v>8013</v>
@@ -1533,7 +2422,7 @@
     <row r="2" spans="1:16" ht="409.6">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>48</v>
@@ -1542,32 +2431,32 @@
         <v>50</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="N2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="P2" s="7"/>
     </row>
@@ -1627,10 +2516,10 @@
         <v>43</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1694,10 +2583,10 @@
     <row r="2" spans="1:11">
       <c r="A2" s="12"/>
       <c r="B2" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>31</v>
@@ -1706,7 +2595,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>40</v>
@@ -1715,10 +2604,10 @@
         <v>100</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1818,10 +2707,10 @@
     <row r="2" spans="1:14" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
@@ -1830,16 +2719,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H2" t="s">
         <v>37</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K2" t="s">
         <v>38</v>
@@ -1929,10 +2818,10 @@
     <row r="2" spans="1:13" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1959,10 +2848,10 @@
     <row r="3" spans="1:13" ht="21">
       <c r="A3" s="1"/>
       <c r="B3" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -1979,10 +2868,10 @@
     <row r="4" spans="1:13" ht="21">
       <c r="A4" s="1"/>
       <c r="B4" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -2059,8 +2948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2110,7 +2999,7 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K1" t="s">
         <v>86</v>
@@ -2143,34 +3032,34 @@
     <row r="2" spans="1:19" ht="19">
       <c r="A2" s="12"/>
       <c r="B2" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>118</v>
-      </c>
       <c r="I2" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>87</v>
@@ -2322,7 +3211,7 @@
     <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2">
         <v>39955</v>
@@ -2331,13 +3220,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F2" s="2">
         <v>100000073665</v>
       </c>
       <c r="G2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H2" s="2">
         <v>200000002152</v>
@@ -2360,7 +3249,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2409,28 +3298,28 @@
     <row r="2" spans="1:11">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F2">
         <v>200000002152</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H2" s="2">
         <v>200000002152</v>
       </c>
       <c r="I2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J2" s="2">
         <v>100000073619</v>
@@ -2446,8 +3335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185E689D-306D-3A44-A772-E9755EF7D37C}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:J9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2543,10 +3432,10 @@
     <row r="2" spans="1:23">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
@@ -2561,25 +3450,26 @@
         <v>100000155527</v>
       </c>
       <c r="H2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I2" s="9">
-        <v>7777</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="K2" s="14">
-        <v>100000073498</v>
+        <v>133</v>
+      </c>
+      <c r="I2" s="28">
+        <v>168740</v>
+      </c>
+      <c r="J2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" s="29" t="str">
+        <f>IF(J2="","",_xlfn.XLOOKUP(J2,[1]EXTRA!$H$2:$H$104,[1]EXTRA!$G$2:$G$104))</f>
+        <v>100000073496</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="N2" s="14">
-        <v>200000003529</v>
+        <v>200000003222</v>
       </c>
     </row>
   </sheetData>

--- a/ePICreator/tegretol.xlsx
+++ b/ePICreator/tegretol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB0E80B-F0A9-224E-B5BC-19B00ED84B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75AC9D8-095D-6F4A-80A8-8675B53C3BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="8" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" firstSheet="1" activeTab="11" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="148">
   <si>
     <t>id</t>
   </si>
@@ -1881,9 +1881,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1921,7 +1921,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2027,7 +2027,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2169,7 +2169,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2356,7 +2356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2484,8 +2484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4B3880-CBCE-B242-93DB-BF401DA7FB8A}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2508,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2520,6 +2520,9 @@
       </c>
       <c r="D2" t="s">
         <v>110</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3335,7 +3338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185E689D-306D-3A44-A772-E9755EF7D37C}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>

--- a/ePICreator/tegretol.xlsx
+++ b/ePICreator/tegretol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75AC9D8-095D-6F4A-80A8-8675B53C3BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C877501-489D-954C-BBB2-5CC13E2CDA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" firstSheet="1" activeTab="11" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="21100" firstSheet="1" activeTab="10" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="149">
   <si>
     <t>id</t>
   </si>
@@ -782,6 +782,9 @@
   </si>
   <si>
     <t>PolyVinyl Chloride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tegretol 200 mg  comprimidos </t>
   </si>
 </sst>
 </file>
@@ -2356,8 +2359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2422,7 +2425,7 @@
     <row r="2" spans="1:16" ht="409.6">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>48</v>
@@ -2484,7 +2487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4B3880-CBCE-B242-93DB-BF401DA7FB8A}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
